--- a/biology/Zoologie/Bernissartia/Bernissartia.xlsx
+++ b/biology/Zoologie/Bernissartia/Bernissartia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernissartia est un genre fossile de petits Crocodyliformes néosuchiens qui vivait au Crétacé inférieur il y a environ 130 Ma (millions d'années), durant les étages Hauterivien et Barrémien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernissartia est un genre fossile de petits Crocodyliformes néosuchiens qui vivait au Crétacé inférieur il y a environ 130 Ma (millions d'années), durant les étages Hauterivien et Barrémien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal a été découvert comme son nom l'indique, à Bernissart, dans la province de Hainaut en Belgique en même temps que les iguanodons.
 Il a été découvert et décrit par Louis Dollo en 1883.
@@ -545,15 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taille
-D'un point de vue morphologique, il ressemblait aux crocodiliens actuels. Sa petite taille de 60 centimètres fait de lui l'un des plus petits crocodiles connus.
-Dentition
-Bernissartia était hétérodonte, ce qui signifie que toutes ses dents n'étaient pas identiques et avaient toutes une fonction.
-Il avait deux types de dents distinctes[1],[2] : 
-les dents antérieures à l'avant de la mâchoire qui étaient tranchantes et pointues, on pense qu'il aurait pu s'en servir pour mordre des proies glissantes comme le poisson ;
-les dents ultérieures à l'arrière de la mâchoire qui étaient plates et arrondies, plus adaptés à l'écrasement de proies tels que les crustacés et les mollusques.
-Environnement
-Il devait probablement habiter les milieux côtiers car l'élévation de la mer durant le Crétacé a fait que l'Europe devait plus ressembler à un archipel[1].
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'un point de vue morphologique, il ressemblait aux crocodiliens actuels. Sa petite taille de 60 centimètres fait de lui l'un des plus petits crocodiles connus.
 </t>
         </is>
       </c>
@@ -579,12 +591,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dentition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bernissartia était hétérodonte, ce qui signifie que toutes ses dents n'étaient pas identiques et avaient toutes une fonction.
+Il avait deux types de dents distinctes, : 
+les dents antérieures à l'avant de la mâchoire qui étaient tranchantes et pointues, on pense qu'il aurait pu s'en servir pour mordre des proies glissantes comme le poisson ;
+les dents ultérieures à l'arrière de la mâchoire qui étaient plates et arrondies, plus adaptés à l'écrasement de proies tels que les crustacés et les mollusques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernissartia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernissartia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Environnement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devait probablement habiter les milieux côtiers car l'élévation de la mer durant le Crétacé a fait que l'Europe devait plus ressembler à un archipel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernissartia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernissartia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Larsson &amp; Sues (2007)[3] et Sereno et al. (2003)[4] montrent que Bernissartia est en fait le taxon frère des crocodiles modernes, c'est-à-dire les Eusuchia :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Larsson &amp; Sues (2007) et Sereno et al. (2003) montrent que Bernissartia est en fait le taxon frère des crocodiles modernes, c'est-à-dire les Eusuchia :
 </t>
         </is>
       </c>
